--- a/Data sets/APA/APA.xlsx
+++ b/Data sets/APA/APA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\APA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F8F2CD7-94FB-49C1-9315-480215BBE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DAEF3-AB0D-4BA3-8425-6B82649032E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7034" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="1188">
   <si>
     <t>Article</t>
   </si>
@@ -1867,9 +1867,6 @@
     <t>The mean levels of cortisol of experimental and control participants at sample 1 and the baseline (sample 2) were not statistically significantly different using a two-tailed t-test9 (sample 1 cortisol difference between control and experimental participants: t(86) = 1.217, P &gt; .10; baseline [sample 2] cortisol difference between control and experimental participants: t(86) = 0.446, P &gt; .10).</t>
   </si>
   <si>
-    <t>Article does not contain explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>Result.Hypothesis</t>
   </si>
   <si>
@@ -1885,9 +1882,6 @@
     <t>Hypothesis 2b: There are significant differences in perceptions and behavioral responses to a service failure among individuals adopting different acculturation strategies, depending on whether the service failure involves a staff of the same ethnicity as the customer’s.</t>
   </si>
   <si>
-    <t>Article contains explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>As figure 4A shows, participants in the contracts condition reported lower levels of generalized trust (4.10 ± 1.48) than those in the reputation condition (5.01 ± 1.26; t(60) = 2.61, P = .012).</t>
   </si>
   <si>
@@ -2201,9 +2195,6 @@
   </si>
   <si>
     <t>Black couples had significantly more components (M = 9.07, SD = 6.05) and isolates (M = 6.52, SD = 5.90) than White couples (M = 6.47, SD = 4.57; M = 4.10, SD = 3.80, Z = 1.8, p = .04; Z = 1.93, p = .03).</t>
-  </si>
-  <si>
-    <t>Article does not contain explicitly stated hypotheses that are mentioned in line with protocol. However, it does contain a list of research questions in which expectations are mentioned.</t>
   </si>
   <si>
     <t xml:space="preserve">There was no age difference between grandparents and control participants, F(1, 224) = 2.23, p = .14, η2 = .01 (for descriptive statistics, see Table 1), and there was no significant interaction between sex and grandparenthood, F(1, 224) = 0.21, p = .65, η2 = .001. </t>
@@ -2712,18 +2703,9 @@
     <t>Model fit statistic./Not taken into account because part of a 'Note' underneath a table.</t>
   </si>
   <si>
-    <t>Article does not contain explicitly stated hypotheses./Model fit statistic./Not taken into account because part of a 'Note' underneath a table.</t>
-  </si>
-  <si>
-    <t>Model fit statistic./Article does not contain explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>Hypothesis 4 (H4): Responsibility attributions will serve as a mediating variable in the direct and indirect relationships between 4b. the harasser’s organizational role and an organization’s past responses to harassment complaints on legal claiming intentions.</t>
   </si>
   <si>
-    <t>Model fit statistic. Article contains explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>Hypothesis 1 (H1): Company reputation will become less favorable as the number of negative reviews—relative to the number of positive reviews—increases.</t>
   </si>
   <si>
@@ -2787,15 +2769,9 @@
     <t>Hypothesis 4: For technology-based service ads in a list format, promotion-focused individuals and prevention-focused individuals will both exhibit higher levels of purchase intention when the ads are comparative (vs. noncomparative).</t>
   </si>
   <si>
-    <t>Model fit statistic. Article does not contain explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>Model fit statistic. Hypotheses are explicitly stated, but not entirely accorinding to protocol: 'We began by testing the relationship between maternal spanking and child aggression, which has already been confirmed in prior studies, specifically (1) assessing whether more frequent maternal spanking would predict increases in child aggression over time. We then examined the hypothesis that (2) higher maternal warmth would predict decreases in child aggression over time and that (3) higher maternal warmth would predict increases in children's social competence over time and (4) more frequent maternal spanking would predict decreases in children's social competence over time.'.</t>
   </si>
   <si>
-    <t>Model fit. Article contains explicitly stated hypotheses.</t>
-  </si>
-  <si>
     <t>Model fit statistic. Article contains explicitly stated hypotheses, though not exactly according to protocol? 'In the current study we examined hypotheses that the relationship between witnessing family violence and directly experiencing violence perpetrated by an adult and physical DA is mediated by three constructs: (a) normative beliefs about DA, (b) anger dysregulation, and (c) depression (see Figure 1 for the study conceptual model).'</t>
   </si>
   <si>
@@ -2803,9 +2779,6 @@
   </si>
   <si>
     <t>Model fit statistic. Article does not contain explicitly stated hypotheses, but does contain a figure in which hypothesized relations are included.</t>
-  </si>
-  <si>
-    <t>Article does not contain explicitly stated hypotheses. Model fit statistic.</t>
   </si>
   <si>
     <t>Model fit statistic. Article does not contain explicitly stated hypotheses according to protocol, but there is a summary of study hypotheses in a figure.</t>
@@ -8412,6 +8385,18 @@
   </si>
   <si>
     <t xml:space="preserve">Phrase in which mentioned </t>
+  </si>
+  <si>
+    <t>/Model fit statistic./Not taken into account because part of a 'Note' underneath a table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model fit statistic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Model fit statistic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model fit. </t>
   </si>
 </sst>
 </file>
@@ -9301,8 +9286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="W451" sqref="W451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9326,7 +9311,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9383,10 +9368,10 @@
         <v>17</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U1" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>611</v>
@@ -9466,9 +9451,7 @@
         <v>613</v>
       </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -9611,11 +9594,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
-        <v>895</v>
+        <v>628</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -9686,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -9759,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -9832,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -9905,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -9978,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -10051,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -10124,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -10197,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -10270,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -10343,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -10416,12 +10399,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -10491,10 +10472,10 @@
         <v>1</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -10566,10 +10547,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -10641,10 +10622,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -10716,10 +10697,10 @@
         <v>1</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -10791,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -10864,10 +10845,10 @@
         <v>1</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -10939,12 +10920,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -11014,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -11087,10 +11066,10 @@
         <v>1</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -11162,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -11235,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -11308,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -11381,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -11454,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -11527,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -11600,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -11673,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -11746,10 +11725,10 @@
         <v>1</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -11821,10 +11800,10 @@
         <v>1</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -11896,10 +11875,10 @@
         <v>1</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -11971,10 +11950,10 @@
         <v>1</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -12046,10 +12025,10 @@
         <v>1</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -12121,10 +12100,10 @@
         <v>1</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -12196,10 +12175,10 @@
         <v>1</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -12271,10 +12250,10 @@
         <v>1</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -12346,10 +12325,10 @@
         <v>1</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -12421,10 +12400,10 @@
         <v>1</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -12496,10 +12475,10 @@
         <v>1</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -12571,10 +12550,10 @@
         <v>1</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -12646,10 +12625,10 @@
         <v>1</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -12721,10 +12700,10 @@
         <v>1</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -12796,10 +12775,10 @@
         <v>1</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -12871,10 +12850,10 @@
         <v>1</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -12946,10 +12925,10 @@
         <v>1</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
@@ -13021,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -13096,10 +13075,10 @@
         <v>1</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -13171,10 +13150,10 @@
         <v>1</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -13246,10 +13225,10 @@
         <v>1</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -13321,10 +13300,10 @@
         <v>1</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -13396,10 +13375,10 @@
         <v>1</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
@@ -13471,10 +13450,10 @@
         <v>1</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -13546,11 +13525,11 @@
         <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
@@ -13621,11 +13600,11 @@
         <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
@@ -13696,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -13769,11 +13748,11 @@
         <v>0</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
@@ -13844,11 +13823,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
@@ -13919,11 +13898,11 @@
         <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
@@ -13994,11 +13973,11 @@
         <v>0</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
@@ -14069,13 +14048,13 @@
         <v>1</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
@@ -14146,13 +14125,13 @@
         <v>1</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
@@ -14223,13 +14202,13 @@
         <v>1</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
@@ -14300,13 +14279,13 @@
         <v>1</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
@@ -14377,11 +14356,11 @@
         <v>0</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>897</v>
+        <v>1185</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
@@ -14452,12 +14431,10 @@
         <v>0</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="V69" s="3"/>
-      <c r="W69" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
@@ -14527,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -14600,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -14673,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -14746,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -14819,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -14892,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -14965,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -15038,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -15111,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -15184,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -15257,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -15330,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -15403,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -15476,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -15549,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -15622,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -15695,10 +15672,10 @@
         <v>1</v>
       </c>
       <c r="U86" s="3" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
@@ -15770,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -15843,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -15916,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -15989,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -16062,12 +16039,10 @@
         <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="V91" s="3"/>
-      <c r="W91" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
@@ -16137,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -16210,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="3" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -16283,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -16356,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -16429,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -16502,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -16575,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -16648,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -16721,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -16794,12 +16769,10 @@
         <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="V101" s="3"/>
-      <c r="W101" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
@@ -16869,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -16942,12 +16915,10 @@
         <v>0</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="V103" s="3"/>
-      <c r="W103" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
@@ -16960,7 +16931,7 @@
         <v>16</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>164</v>
@@ -17017,10 +16988,10 @@
         <v>1</v>
       </c>
       <c r="U104" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
@@ -17035,7 +17006,7 @@
         <v>16</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>164</v>
@@ -17092,10 +17063,10 @@
         <v>1</v>
       </c>
       <c r="U105" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
@@ -17110,7 +17081,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>164</v>
@@ -17167,10 +17138,10 @@
         <v>1</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
@@ -17242,13 +17213,13 @@
         <v>1</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
@@ -17319,10 +17290,10 @@
         <v>1</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -17394,10 +17365,10 @@
         <v>1</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -17469,10 +17440,10 @@
         <v>1</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -17544,10 +17515,10 @@
         <v>1</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -17619,10 +17590,10 @@
         <v>1</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="V112" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -17694,10 +17665,10 @@
         <v>1</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -17769,10 +17740,10 @@
         <v>1</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -17844,10 +17815,10 @@
         <v>1</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="V115" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -17919,10 +17890,10 @@
         <v>1</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -17994,10 +17965,10 @@
         <v>1</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="V117" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -18069,10 +18040,10 @@
         <v>1</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -18144,13 +18115,13 @@
         <v>1</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="V119" s="3" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="W119" s="3" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
@@ -18221,13 +18192,13 @@
         <v>1</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="W120" s="3" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
@@ -18298,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -18371,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="3" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -18444,10 +18415,10 @@
         <v>1</v>
       </c>
       <c r="U123" s="3" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="V123" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
@@ -18519,10 +18490,10 @@
         <v>1</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
@@ -18594,10 +18565,10 @@
         <v>1</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
@@ -18669,11 +18640,11 @@
         <v>0</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
@@ -18744,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
@@ -18817,7 +18788,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="3" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
@@ -18890,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -18963,10 +18934,10 @@
         <v>1</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="V130" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
@@ -19038,10 +19009,10 @@
         <v>1</v>
       </c>
       <c r="U131" s="3" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="V131" s="3" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
@@ -19113,10 +19084,10 @@
         <v>1</v>
       </c>
       <c r="U132" s="3" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V132" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
@@ -19188,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
@@ -19261,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
@@ -19334,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
@@ -19407,10 +19378,10 @@
         <v>1</v>
       </c>
       <c r="U136" s="3" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="V136" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
@@ -19482,10 +19453,10 @@
         <v>1</v>
       </c>
       <c r="U137" s="3" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="V137" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
@@ -19557,10 +19528,10 @@
         <v>1</v>
       </c>
       <c r="U138" s="3" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="V138" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
@@ -19632,10 +19603,10 @@
         <v>1</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="V139" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
@@ -19707,7 +19678,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
@@ -19780,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="3" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -19853,10 +19824,10 @@
         <v>1</v>
       </c>
       <c r="U142" s="3" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="V142" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
@@ -19928,10 +19899,10 @@
         <v>1</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="V143" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
@@ -20003,10 +19974,10 @@
         <v>1</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="V144" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
@@ -20078,10 +20049,10 @@
         <v>1</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="V145" s="3" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
@@ -20153,10 +20124,10 @@
         <v>1</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="V146" s="3" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
@@ -20228,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="3" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
@@ -20301,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="3" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -20374,10 +20345,10 @@
         <v>1</v>
       </c>
       <c r="U149" s="3" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="V149" s="3" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
@@ -20449,10 +20420,10 @@
         <v>1</v>
       </c>
       <c r="U150" s="3" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="V150" s="3" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
@@ -20524,10 +20495,10 @@
         <v>1</v>
       </c>
       <c r="U151" s="3" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="V151" s="3" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
@@ -20599,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="3" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
@@ -20672,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="3" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -20745,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="U154" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -20818,10 +20789,10 @@
         <v>1</v>
       </c>
       <c r="U155" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="V155" s="3" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
@@ -20893,10 +20864,10 @@
         <v>1</v>
       </c>
       <c r="U156" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="V156" s="3" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
@@ -20968,10 +20939,10 @@
         <v>1</v>
       </c>
       <c r="U157" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="V157" s="3" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
@@ -21043,10 +21014,10 @@
         <v>1</v>
       </c>
       <c r="U158" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="V158" s="3" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
@@ -21118,10 +21089,10 @@
         <v>1</v>
       </c>
       <c r="U159" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="V159" s="3" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
@@ -21193,10 +21164,10 @@
         <v>1</v>
       </c>
       <c r="U160" s="3" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="V160" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
@@ -21268,10 +21239,10 @@
         <v>1</v>
       </c>
       <c r="U161" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="V161" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
@@ -21343,10 +21314,10 @@
         <v>1</v>
       </c>
       <c r="U162" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="V162" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
@@ -21418,10 +21389,10 @@
         <v>1</v>
       </c>
       <c r="U163" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="V163" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
@@ -21493,10 +21464,10 @@
         <v>1</v>
       </c>
       <c r="U164" s="3" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="V164" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
@@ -21568,10 +21539,10 @@
         <v>1</v>
       </c>
       <c r="U165" s="3" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="V165" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
@@ -21643,10 +21614,10 @@
         <v>1</v>
       </c>
       <c r="U166" s="3" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="V166" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
@@ -21718,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="3" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
@@ -21791,10 +21762,10 @@
         <v>1</v>
       </c>
       <c r="U168" s="3" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="V168" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
@@ -21866,10 +21837,10 @@
         <v>1</v>
       </c>
       <c r="U169" s="3" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="V169" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
@@ -21941,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="3" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
@@ -22014,10 +21985,10 @@
         <v>1</v>
       </c>
       <c r="U171" s="3" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="V171" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
@@ -22089,10 +22060,10 @@
         <v>1</v>
       </c>
       <c r="U172" s="3" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="V172" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
@@ -22164,10 +22135,10 @@
         <v>1</v>
       </c>
       <c r="U173" s="3" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="V173" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
@@ -22239,10 +22210,10 @@
         <v>1</v>
       </c>
       <c r="U174" s="3" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="V174" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
@@ -22314,10 +22285,10 @@
         <v>1</v>
       </c>
       <c r="U175" s="3" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="V175" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
@@ -22389,10 +22360,10 @@
         <v>1</v>
       </c>
       <c r="U176" s="3" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="V176" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
@@ -22464,10 +22435,10 @@
         <v>1</v>
       </c>
       <c r="U177" s="3" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="V177" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
@@ -22539,10 +22510,10 @@
         <v>1</v>
       </c>
       <c r="U178" s="3" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="V178" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
@@ -22614,10 +22585,10 @@
         <v>1</v>
       </c>
       <c r="U179" s="3" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="V179" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
@@ -22689,7 +22660,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
@@ -22762,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
@@ -22835,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
@@ -22908,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
@@ -22981,7 +22952,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
@@ -23054,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
@@ -23127,10 +23098,10 @@
         <v>1</v>
       </c>
       <c r="U186" s="3" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="V186" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
@@ -23202,10 +23173,10 @@
         <v>1</v>
       </c>
       <c r="U187" s="3" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="V187" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
@@ -23277,10 +23248,10 @@
         <v>1</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="V188" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
@@ -23352,10 +23323,10 @@
         <v>1</v>
       </c>
       <c r="U189" s="3" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="V189" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
@@ -23427,10 +23398,10 @@
         <v>1</v>
       </c>
       <c r="U190" s="3" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="V190" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
@@ -23502,10 +23473,10 @@
         <v>1</v>
       </c>
       <c r="U191" s="3" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="V191" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
@@ -23577,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="U192" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
@@ -23650,10 +23621,10 @@
         <v>1</v>
       </c>
       <c r="U193" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="V193" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
@@ -23725,10 +23696,10 @@
         <v>1</v>
       </c>
       <c r="U194" s="3" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="V194" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
@@ -23800,7 +23771,7 @@
         <v>0</v>
       </c>
       <c r="U195" s="3" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
@@ -23873,10 +23844,10 @@
         <v>1</v>
       </c>
       <c r="U196" s="3" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="V196" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
@@ -23948,10 +23919,10 @@
         <v>1</v>
       </c>
       <c r="U197" s="3" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="V197" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
@@ -24023,10 +23994,10 @@
         <v>1</v>
       </c>
       <c r="U198" s="3" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="V198" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
@@ -24098,10 +24069,10 @@
         <v>1</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="V199" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
@@ -24173,10 +24144,10 @@
         <v>1</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="V200" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
@@ -24248,10 +24219,10 @@
         <v>1</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="V201" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
@@ -24323,10 +24294,10 @@
         <v>1</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V202" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
@@ -24398,10 +24369,10 @@
         <v>1</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V203" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
@@ -24473,10 +24444,10 @@
         <v>1</v>
       </c>
       <c r="U204" s="3" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="V204" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
@@ -24548,10 +24519,10 @@
         <v>1</v>
       </c>
       <c r="U205" s="3" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="V205" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
@@ -24623,10 +24594,10 @@
         <v>1</v>
       </c>
       <c r="U206" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="V206" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
@@ -24698,10 +24669,10 @@
         <v>1</v>
       </c>
       <c r="U207" s="3" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="V207" s="3" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
@@ -24773,10 +24744,10 @@
         <v>1</v>
       </c>
       <c r="U208" s="3" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="V208" s="3" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
@@ -24848,10 +24819,10 @@
         <v>1</v>
       </c>
       <c r="U209" s="3" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="V209" s="3" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
@@ -24923,11 +24894,11 @@
         <v>0</v>
       </c>
       <c r="U210" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
@@ -24998,11 +24969,11 @@
         <v>0</v>
       </c>
       <c r="U211" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
@@ -25073,11 +25044,11 @@
         <v>0</v>
       </c>
       <c r="U212" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
@@ -25148,11 +25119,11 @@
         <v>0</v>
       </c>
       <c r="U213" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
@@ -25223,11 +25194,11 @@
         <v>0</v>
       </c>
       <c r="U214" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
@@ -25298,11 +25269,11 @@
         <v>0</v>
       </c>
       <c r="U215" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
@@ -25373,11 +25344,11 @@
         <v>0</v>
       </c>
       <c r="U216" s="3" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
@@ -25448,10 +25419,10 @@
         <v>1</v>
       </c>
       <c r="U217" s="3" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="V217" s="3" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
@@ -25523,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="U218" s="3" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
@@ -25596,10 +25567,10 @@
         <v>1</v>
       </c>
       <c r="U219" s="3" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="V219" s="3" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
@@ -25671,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
@@ -25744,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="U221" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
@@ -25817,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="U222" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
@@ -25890,7 +25861,7 @@
         <v>0</v>
       </c>
       <c r="U223" s="3" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
@@ -25963,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="U224" s="3" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
@@ -26036,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="U225" s="3" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
@@ -26109,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="U226" s="3" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
@@ -26182,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="U227" s="3" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
@@ -26255,7 +26226,7 @@
         <v>0</v>
       </c>
       <c r="U228" s="3" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
@@ -26328,10 +26299,10 @@
         <v>1</v>
       </c>
       <c r="U229" s="3" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="V229" s="3" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
@@ -26403,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="U230" s="3" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
@@ -26476,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="U231" s="3" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
@@ -26549,7 +26520,7 @@
         <v>0</v>
       </c>
       <c r="U232" s="3" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
@@ -26622,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="U233" s="3" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
@@ -26695,7 +26666,7 @@
         <v>0</v>
       </c>
       <c r="U234" s="3" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
@@ -26768,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="U235" s="3" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
@@ -26841,7 +26812,7 @@
         <v>0</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
@@ -26914,7 +26885,7 @@
         <v>0</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
@@ -26987,10 +26958,10 @@
         <v>1</v>
       </c>
       <c r="U238" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="V238" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
@@ -27062,10 +27033,10 @@
         <v>1</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="V239" s="3" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
@@ -27137,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
@@ -27210,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="U241" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
@@ -27283,7 +27254,7 @@
         <v>0</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
@@ -27356,10 +27327,10 @@
         <v>1</v>
       </c>
       <c r="U243" s="3" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="V243" s="3" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
@@ -27431,10 +27402,10 @@
         <v>1</v>
       </c>
       <c r="U244" s="3" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="V244" s="3" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
@@ -27506,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
@@ -27579,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
@@ -27652,10 +27623,10 @@
         <v>1</v>
       </c>
       <c r="U247" s="3" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
@@ -27727,10 +27698,10 @@
         <v>1</v>
       </c>
       <c r="U248" s="3" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="V248" s="3" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
@@ -27802,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
@@ -27875,10 +27846,10 @@
         <v>1</v>
       </c>
       <c r="U250" s="3" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="V250" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
@@ -27950,10 +27921,10 @@
         <v>1</v>
       </c>
       <c r="U251" s="3" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="V251" s="3" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
@@ -28025,11 +27996,11 @@
         <v>0</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V252" s="3"/>
       <c r="W252" s="3" t="s">
-        <v>897</v>
+        <v>1185</v>
       </c>
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
@@ -28100,10 +28071,10 @@
         <v>1</v>
       </c>
       <c r="U253" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="V253" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
@@ -28175,10 +28146,10 @@
         <v>1</v>
       </c>
       <c r="U254" s="3" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="V254" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
@@ -28250,10 +28221,10 @@
         <v>1</v>
       </c>
       <c r="U255" s="3" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="V255" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
@@ -28325,11 +28296,11 @@
         <v>22</v>
       </c>
       <c r="U256" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="V256" s="3"/>
       <c r="W256" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
@@ -28400,12 +28371,10 @@
         <v>0</v>
       </c>
       <c r="U257" s="3" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="V257" s="3"/>
-      <c r="W257" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="W257" s="3"/>
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
@@ -28475,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="U258" s="3" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
@@ -28548,12 +28517,10 @@
         <v>0</v>
       </c>
       <c r="U259" s="3" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="V259" s="3"/>
-      <c r="W259" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W259" s="3"/>
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
@@ -28623,11 +28590,11 @@
         <v>22</v>
       </c>
       <c r="U260" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="V260" s="3"/>
       <c r="W260" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
@@ -28698,11 +28665,11 @@
         <v>22</v>
       </c>
       <c r="U261" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="V261" s="3"/>
       <c r="W261" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
@@ -28773,11 +28740,11 @@
         <v>22</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V262" s="3"/>
       <c r="W262" s="3" t="s">
-        <v>894</v>
+        <v>1184</v>
       </c>
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
@@ -28848,11 +28815,11 @@
         <v>22</v>
       </c>
       <c r="U263" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V263" s="3"/>
       <c r="W263" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
@@ -28923,11 +28890,11 @@
         <v>0</v>
       </c>
       <c r="U264" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V264" s="3"/>
       <c r="W264" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
@@ -28998,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="U265" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
@@ -29071,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="U266" s="3" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
@@ -29144,7 +29111,7 @@
         <v>0</v>
       </c>
       <c r="U267" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
@@ -29217,13 +29184,13 @@
         <v>1</v>
       </c>
       <c r="U268" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V268" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="W268" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
@@ -29294,12 +29261,10 @@
         <v>0</v>
       </c>
       <c r="U269" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="V269" s="3"/>
-      <c r="W269" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="W269" s="3"/>
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
@@ -29369,12 +29334,10 @@
         <v>0</v>
       </c>
       <c r="U270" s="3" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="V270" s="3"/>
-      <c r="W270" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W270" s="3"/>
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
@@ -29444,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="U271" s="3" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
@@ -29517,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="U272" s="3" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="V272" s="3"/>
       <c r="W272" s="3"/>
@@ -29590,7 +29553,7 @@
         <v>0</v>
       </c>
       <c r="U273" s="3" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
@@ -29663,7 +29626,7 @@
         <v>0</v>
       </c>
       <c r="U274" s="3" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="V274" s="3"/>
       <c r="W274" s="3"/>
@@ -29736,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="U275" s="3" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
@@ -29809,7 +29772,7 @@
         <v>0</v>
       </c>
       <c r="U276" s="3" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="V276" s="3"/>
       <c r="W276" s="3"/>
@@ -29882,7 +29845,7 @@
         <v>0</v>
       </c>
       <c r="U277" s="3" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
@@ -29955,7 +29918,7 @@
         <v>0</v>
       </c>
       <c r="U278" s="3" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="V278" s="3"/>
       <c r="W278" s="3"/>
@@ -30028,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="U279" s="3" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
@@ -30101,11 +30064,11 @@
         <v>22</v>
       </c>
       <c r="U280" s="3" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="V280" s="3"/>
       <c r="W280" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
@@ -30176,11 +30139,11 @@
         <v>22</v>
       </c>
       <c r="U281" s="3" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="V281" s="3"/>
       <c r="W281" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
@@ -30251,11 +30214,11 @@
         <v>22</v>
       </c>
       <c r="U282" s="3" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="V282" s="3"/>
       <c r="W282" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
@@ -30326,11 +30289,11 @@
         <v>22</v>
       </c>
       <c r="U283" s="3" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="V283" s="3"/>
       <c r="W283" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
@@ -30401,11 +30364,11 @@
         <v>22</v>
       </c>
       <c r="U284" s="3" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="V284" s="3"/>
       <c r="W284" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
@@ -30476,12 +30439,10 @@
         <v>0</v>
       </c>
       <c r="U285" s="3" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="V285" s="3"/>
-      <c r="W285" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W285" s="3"/>
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
@@ -30551,7 +30512,7 @@
         <v>0</v>
       </c>
       <c r="U286" s="3" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="V286" s="3"/>
       <c r="W286" s="3"/>
@@ -30624,7 +30585,7 @@
         <v>0</v>
       </c>
       <c r="U287" s="3" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
@@ -30697,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="U288" s="3" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="V288" s="3"/>
       <c r="W288" s="3"/>
@@ -30770,7 +30731,7 @@
         <v>0</v>
       </c>
       <c r="U289" s="3" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
@@ -30843,11 +30804,11 @@
         <v>0</v>
       </c>
       <c r="U290" s="3" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="V290" s="3"/>
       <c r="W290" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
@@ -30918,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="U291" s="3" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
@@ -30991,7 +30952,7 @@
         <v>0</v>
       </c>
       <c r="U292" s="3" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="V292" s="3"/>
       <c r="W292" s="3"/>
@@ -31064,7 +31025,7 @@
         <v>0</v>
       </c>
       <c r="U293" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
@@ -31137,7 +31098,7 @@
         <v>0</v>
       </c>
       <c r="U294" s="3" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="V294" s="3"/>
       <c r="W294" s="3"/>
@@ -31210,7 +31171,7 @@
         <v>0</v>
       </c>
       <c r="U295" s="3" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
@@ -31283,7 +31244,7 @@
         <v>0</v>
       </c>
       <c r="U296" s="3" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="V296" s="3"/>
       <c r="W296" s="3"/>
@@ -31356,7 +31317,7 @@
         <v>0</v>
       </c>
       <c r="U297" s="3" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
@@ -31429,7 +31390,7 @@
         <v>0</v>
       </c>
       <c r="U298" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="V298" s="3"/>
       <c r="W298" s="3"/>
@@ -31502,7 +31463,7 @@
         <v>0</v>
       </c>
       <c r="U299" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
@@ -31575,7 +31536,7 @@
         <v>0</v>
       </c>
       <c r="U300" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="V300" s="3"/>
       <c r="W300" s="3"/>
@@ -31648,7 +31609,7 @@
         <v>0</v>
       </c>
       <c r="U301" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
@@ -31721,7 +31682,7 @@
         <v>0</v>
       </c>
       <c r="U302" s="3" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="V302" s="3"/>
       <c r="W302" s="3"/>
@@ -31794,12 +31755,10 @@
         <v>0</v>
       </c>
       <c r="U303" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="V303" s="3"/>
-      <c r="W303" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W303" s="3"/>
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
@@ -31869,12 +31828,10 @@
         <v>0</v>
       </c>
       <c r="U304" s="3" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="V304" s="3"/>
-      <c r="W304" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W304" s="3"/>
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
@@ -31944,11 +31901,11 @@
         <v>0</v>
       </c>
       <c r="U305" s="3" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="V305" s="3"/>
       <c r="W305" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
@@ -32019,11 +31976,11 @@
         <v>0</v>
       </c>
       <c r="U306" s="3" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="V306" s="3"/>
       <c r="W306" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
@@ -32094,11 +32051,11 @@
         <v>0</v>
       </c>
       <c r="U307" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="V307" s="3"/>
       <c r="W307" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
@@ -32169,10 +32126,10 @@
         <v>1</v>
       </c>
       <c r="U308" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="V308" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
@@ -32244,7 +32201,7 @@
         <v>0</v>
       </c>
       <c r="U309" s="3" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="V309" s="3"/>
       <c r="W309" s="3"/>
@@ -32317,10 +32274,10 @@
         <v>1</v>
       </c>
       <c r="U310" s="3" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="V310" s="3" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
@@ -32392,10 +32349,10 @@
         <v>1</v>
       </c>
       <c r="U311" s="3" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="V311" s="3" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
@@ -32467,12 +32424,10 @@
         <v>0</v>
       </c>
       <c r="U312" s="3" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="V312" s="3"/>
-      <c r="W312" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W312" s="3"/>
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
@@ -32542,7 +32497,7 @@
         <v>0</v>
       </c>
       <c r="U313" s="3" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="V313" s="3"/>
       <c r="W313" s="3"/>
@@ -32615,7 +32570,7 @@
         <v>0</v>
       </c>
       <c r="U314" s="3" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="V314" s="3"/>
       <c r="W314" s="3"/>
@@ -32688,7 +32643,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="3" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="V315" s="3"/>
       <c r="W315" s="3"/>
@@ -32761,7 +32716,7 @@
         <v>0</v>
       </c>
       <c r="U316" s="3" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="V316" s="3"/>
       <c r="W316" s="3"/>
@@ -32834,7 +32789,7 @@
         <v>0</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="V317" s="3"/>
       <c r="W317" s="3"/>
@@ -32907,11 +32862,11 @@
         <v>22</v>
       </c>
       <c r="U318" s="3" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="V318" s="3"/>
       <c r="W318" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
@@ -32982,11 +32937,11 @@
         <v>0</v>
       </c>
       <c r="U319" s="3" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="V319" s="3"/>
       <c r="W319" s="3" t="s">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
@@ -33057,10 +33012,10 @@
         <v>1</v>
       </c>
       <c r="U320" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="V320" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
@@ -33111,7 +33066,7 @@
         <v>6.2760332314812902E-3</v>
       </c>
       <c r="N321" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="O321" s="3" t="s">
         <v>26</v>
@@ -33130,10 +33085,10 @@
         <v>1</v>
       </c>
       <c r="U321" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="V321" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
@@ -33184,7 +33139,7 @@
         <v>7.6228706871091095E-2</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="O322" s="3" t="s">
         <v>33</v>
@@ -33203,7 +33158,7 @@
         <v>0</v>
       </c>
       <c r="U322" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
@@ -33276,10 +33231,10 @@
         <v>1</v>
       </c>
       <c r="U323" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="V323" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
@@ -33351,13 +33306,13 @@
         <v>1</v>
       </c>
       <c r="U324" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="V324" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W324" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
@@ -33428,10 +33383,10 @@
         <v>1</v>
       </c>
       <c r="U325" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="V325" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
@@ -33503,10 +33458,10 @@
         <v>1</v>
       </c>
       <c r="U326" s="3" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="V326" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
@@ -33578,10 +33533,10 @@
         <v>1</v>
       </c>
       <c r="U327" s="3" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="V327" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
@@ -33653,10 +33608,10 @@
         <v>1</v>
       </c>
       <c r="U328" s="3" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="V328" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
@@ -33728,11 +33683,11 @@
         <v>0</v>
       </c>
       <c r="U329" s="3" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="V329" s="3"/>
       <c r="W329" s="3" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
@@ -33803,11 +33758,11 @@
         <v>0</v>
       </c>
       <c r="U330" s="3" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="V330" s="3"/>
       <c r="W330" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
@@ -33878,11 +33833,11 @@
         <v>0</v>
       </c>
       <c r="U331" s="3" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="V331" s="3"/>
       <c r="W331" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
@@ -33953,13 +33908,13 @@
         <v>0</v>
       </c>
       <c r="U332" s="3" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="V332" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="W332" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
@@ -34030,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="U333" s="3" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="V333" s="3"/>
       <c r="W333" s="3"/>
@@ -34103,7 +34058,7 @@
         <v>0</v>
       </c>
       <c r="U334" s="3" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="V334" s="3"/>
       <c r="W334" s="3"/>
@@ -34176,11 +34131,11 @@
         <v>0</v>
       </c>
       <c r="U335" s="3" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="V335" s="3"/>
       <c r="W335" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
@@ -34251,11 +34206,11 @@
         <v>0</v>
       </c>
       <c r="U336" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="V336" s="3"/>
       <c r="W336" s="3" t="s">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
@@ -34305,7 +34260,7 @@
         <v>0.35866470208680901</v>
       </c>
       <c r="N337" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="O337" s="3" t="s">
         <v>26</v>
@@ -34326,7 +34281,7 @@
         <v>0</v>
       </c>
       <c r="U337" s="3" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
@@ -34399,14 +34354,12 @@
         <v>0</v>
       </c>
       <c r="U338" s="3" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
       <c r="X338" s="3"/>
-      <c r="Y338" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
       <c r="AA338" s="3"/>
       <c r="AB338" s="3"/>
@@ -34474,7 +34427,7 @@
         <v>0</v>
       </c>
       <c r="U339" s="3" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="V339" s="3"/>
       <c r="W339" s="3"/>
@@ -34547,7 +34500,7 @@
         <v>0</v>
       </c>
       <c r="U340" s="3" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
@@ -34620,7 +34573,7 @@
         <v>0</v>
       </c>
       <c r="U341" s="3" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="V341" s="3"/>
       <c r="W341" s="3"/>
@@ -34693,7 +34646,7 @@
         <v>0</v>
       </c>
       <c r="U342" s="3" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="V342" s="3"/>
       <c r="W342" s="3"/>
@@ -34766,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="U343" s="3" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="V343" s="3"/>
       <c r="W343" s="3"/>
@@ -34839,12 +34792,10 @@
         <v>0</v>
       </c>
       <c r="U344" s="3" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="V344" s="3"/>
-      <c r="W344" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W344" s="3"/>
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
@@ -34914,11 +34865,11 @@
         <v>0</v>
       </c>
       <c r="U345" s="3" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="V345" s="3"/>
       <c r="W345" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
@@ -34989,11 +34940,11 @@
         <v>0</v>
       </c>
       <c r="U346" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="V346" s="3"/>
       <c r="W346" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
@@ -35064,11 +35015,11 @@
         <v>0</v>
       </c>
       <c r="U347" s="3" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="V347" s="3"/>
       <c r="W347" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
@@ -35139,11 +35090,11 @@
         <v>0</v>
       </c>
       <c r="U348" s="3" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="V348" s="3"/>
       <c r="W348" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
@@ -35214,11 +35165,11 @@
         <v>22</v>
       </c>
       <c r="U349" s="3" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="V349" s="3"/>
       <c r="W349" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
@@ -35289,11 +35240,11 @@
         <v>0</v>
       </c>
       <c r="U350" s="3" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="V350" s="3"/>
       <c r="W350" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
@@ -35364,11 +35315,11 @@
         <v>0</v>
       </c>
       <c r="U351" s="3" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="V351" s="3"/>
       <c r="W351" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
@@ -35439,11 +35390,11 @@
         <v>0</v>
       </c>
       <c r="U352" s="3" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="V352" s="3"/>
       <c r="W352" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
@@ -35514,11 +35465,11 @@
         <v>0</v>
       </c>
       <c r="U353" s="3" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="V353" s="3"/>
       <c r="W353" s="3" t="s">
-        <v>921</v>
+        <v>1187</v>
       </c>
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
@@ -35589,11 +35540,11 @@
         <v>0</v>
       </c>
       <c r="U354" s="3" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="V354" s="3"/>
       <c r="W354" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
@@ -35664,11 +35615,11 @@
         <v>0</v>
       </c>
       <c r="U355" s="3" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="V355" s="3"/>
       <c r="W355" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
@@ -35739,11 +35690,11 @@
         <v>0</v>
       </c>
       <c r="U356" s="3" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="V356" s="3"/>
       <c r="W356" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
@@ -35814,11 +35765,11 @@
         <v>0</v>
       </c>
       <c r="U357" s="3" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="V357" s="3"/>
       <c r="W357" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
@@ -35889,11 +35840,11 @@
         <v>0</v>
       </c>
       <c r="U358" s="3" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="V358" s="3"/>
       <c r="W358" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
@@ -35964,11 +35915,11 @@
         <v>0</v>
       </c>
       <c r="U359" s="3" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="V359" s="3"/>
       <c r="W359" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
@@ -36039,11 +35990,11 @@
         <v>0</v>
       </c>
       <c r="U360" s="3" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="V360" s="3"/>
       <c r="W360" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
@@ -36114,11 +36065,11 @@
         <v>0</v>
       </c>
       <c r="U361" s="3" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="V361" s="3"/>
       <c r="W361" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
@@ -36189,7 +36140,7 @@
         <v>0</v>
       </c>
       <c r="U362" s="3" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="V362" s="3"/>
       <c r="W362" s="3"/>
@@ -36262,7 +36213,7 @@
         <v>0</v>
       </c>
       <c r="U363" s="3" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="V363" s="3"/>
       <c r="W363" s="3"/>
@@ -36335,7 +36286,7 @@
         <v>0</v>
       </c>
       <c r="U364" s="3" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="V364" s="3"/>
       <c r="W364" s="3"/>
@@ -36408,11 +36359,11 @@
         <v>0</v>
       </c>
       <c r="U365" s="3" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="V365" s="3"/>
       <c r="W365" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
@@ -36483,11 +36434,11 @@
         <v>0</v>
       </c>
       <c r="U366" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="V366" s="3"/>
       <c r="W366" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
@@ -36558,11 +36509,11 @@
         <v>0</v>
       </c>
       <c r="U367" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="V367" s="3"/>
       <c r="W367" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
@@ -36633,11 +36584,11 @@
         <v>0</v>
       </c>
       <c r="U368" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="V368" s="3"/>
       <c r="W368" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
@@ -36708,7 +36659,7 @@
         <v>0</v>
       </c>
       <c r="U369" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="V369" s="3"/>
       <c r="W369" s="3"/>
@@ -36781,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="U370" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="V370" s="3"/>
       <c r="W370" s="3"/>
@@ -36854,12 +36805,10 @@
         <v>0</v>
       </c>
       <c r="U371" s="3" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="V371" s="3"/>
-      <c r="W371" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W371" s="3"/>
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
@@ -36929,7 +36878,7 @@
         <v>0</v>
       </c>
       <c r="U372" s="3" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="V372" s="3"/>
       <c r="W372" s="3"/>
@@ -37002,7 +36951,7 @@
         <v>0</v>
       </c>
       <c r="U373" s="3" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="V373" s="3"/>
       <c r="W373" s="3"/>
@@ -37075,7 +37024,7 @@
         <v>0</v>
       </c>
       <c r="U374" s="3" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="V374" s="3"/>
       <c r="W374" s="3"/>
@@ -37148,12 +37097,10 @@
         <v>0</v>
       </c>
       <c r="U375" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="V375" s="3"/>
-      <c r="W375" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W375" s="3"/>
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
@@ -37223,7 +37170,7 @@
         <v>0</v>
       </c>
       <c r="U376" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V376" s="3"/>
       <c r="W376" s="3"/>
@@ -37296,7 +37243,7 @@
         <v>0</v>
       </c>
       <c r="U377" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V377" s="3"/>
       <c r="W377" s="3"/>
@@ -37369,7 +37316,7 @@
         <v>0</v>
       </c>
       <c r="U378" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="V378" s="3"/>
       <c r="W378" s="3"/>
@@ -37442,12 +37389,10 @@
         <v>0</v>
       </c>
       <c r="U379" s="3" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="V379" s="3"/>
-      <c r="W379" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W379" s="3"/>
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
@@ -37517,7 +37462,7 @@
         <v>0</v>
       </c>
       <c r="U380" s="3" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="V380" s="3"/>
       <c r="W380" s="3"/>
@@ -37590,7 +37535,7 @@
         <v>0</v>
       </c>
       <c r="U381" s="3" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
@@ -37663,7 +37608,7 @@
         <v>0</v>
       </c>
       <c r="U382" s="3" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="V382" s="3"/>
       <c r="W382" s="3"/>
@@ -37736,7 +37681,7 @@
         <v>0</v>
       </c>
       <c r="U383" s="3" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="V383" s="3"/>
       <c r="W383" s="3"/>
@@ -37809,11 +37754,11 @@
         <v>0</v>
       </c>
       <c r="U384" s="3" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="V384" s="3"/>
       <c r="W384" s="3" t="s">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
@@ -37884,11 +37829,11 @@
         <v>0</v>
       </c>
       <c r="U385" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="V385" s="3"/>
       <c r="W385" s="3" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
@@ -37959,11 +37904,11 @@
         <v>0</v>
       </c>
       <c r="U386" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="V386" s="3"/>
       <c r="W386" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
@@ -38034,11 +37979,11 @@
         <v>0</v>
       </c>
       <c r="U387" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="V387" s="3"/>
       <c r="W387" s="3" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
@@ -38109,11 +38054,11 @@
         <v>0</v>
       </c>
       <c r="U388" s="3" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="V388" s="3"/>
       <c r="W388" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
@@ -38184,11 +38129,11 @@
         <v>0</v>
       </c>
       <c r="U389" s="3" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="V389" s="3"/>
       <c r="W389" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
@@ -38259,7 +38204,7 @@
         <v>0</v>
       </c>
       <c r="U390" s="3" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="V390" s="3"/>
       <c r="W390" s="3"/>
@@ -38332,7 +38277,7 @@
         <v>0</v>
       </c>
       <c r="U391" s="3" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
@@ -38405,7 +38350,7 @@
         <v>0</v>
       </c>
       <c r="U392" s="3" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="V392" s="3"/>
       <c r="W392" s="3"/>
@@ -38478,7 +38423,7 @@
         <v>0</v>
       </c>
       <c r="U393" s="3" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
@@ -38551,7 +38496,7 @@
         <v>0</v>
       </c>
       <c r="U394" s="3" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
@@ -38624,12 +38569,10 @@
         <v>0</v>
       </c>
       <c r="U395" s="3" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="V395" s="3"/>
-      <c r="W395" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W395" s="3"/>
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
@@ -38699,7 +38642,7 @@
         <v>0</v>
       </c>
       <c r="U396" s="3" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="V396" s="3"/>
       <c r="W396" s="3"/>
@@ -38772,7 +38715,7 @@
         <v>0</v>
       </c>
       <c r="U397" s="3" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
@@ -38845,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="U398" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="V398" s="3"/>
       <c r="W398" s="3"/>
@@ -38918,7 +38861,7 @@
         <v>0</v>
       </c>
       <c r="U399" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
@@ -38970,7 +38913,7 @@
         <v>0.35808618747376703</v>
       </c>
       <c r="N400" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="O400" s="3" t="s">
         <v>26</v>
@@ -38989,7 +38932,7 @@
         <v>0</v>
       </c>
       <c r="U400" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="V400" s="3"/>
       <c r="W400" s="3"/>
@@ -39062,7 +39005,7 @@
         <v>0</v>
       </c>
       <c r="U401" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
@@ -39135,7 +39078,7 @@
         <v>0</v>
       </c>
       <c r="U402" s="3" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="V402" s="3"/>
       <c r="W402" s="3"/>
@@ -39208,7 +39151,7 @@
         <v>0</v>
       </c>
       <c r="U403" s="3" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
@@ -39260,7 +39203,7 @@
         <v>5.4261192137757298E-2</v>
       </c>
       <c r="N404" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="O404" s="3" t="s">
         <v>33</v>
@@ -39279,7 +39222,7 @@
         <v>0</v>
       </c>
       <c r="U404" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="V404" s="3"/>
       <c r="W404" s="3"/>
@@ -39352,7 +39295,7 @@
         <v>0</v>
       </c>
       <c r="U405" s="3" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
@@ -39425,7 +39368,7 @@
         <v>0</v>
       </c>
       <c r="U406" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="V406" s="3"/>
       <c r="W406" s="3"/>
@@ -39498,7 +39441,7 @@
         <v>0</v>
       </c>
       <c r="U407" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="V407" s="3"/>
       <c r="W407" s="3"/>
@@ -39571,7 +39514,7 @@
         <v>0</v>
       </c>
       <c r="U408" s="3" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="V408" s="3"/>
       <c r="W408" s="3"/>
@@ -39623,7 +39566,7 @@
         <v>9.3687766051202097E-3</v>
       </c>
       <c r="N409" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="O409" s="3" t="s">
         <v>26</v>
@@ -39642,7 +39585,7 @@
         <v>0</v>
       </c>
       <c r="U409" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
@@ -39715,7 +39658,7 @@
         <v>0</v>
       </c>
       <c r="U410" s="3" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="V410" s="3"/>
       <c r="W410" s="3"/>
@@ -39788,7 +39731,7 @@
         <v>0</v>
       </c>
       <c r="U411" s="3" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="V411" s="3"/>
       <c r="W411" s="3"/>
@@ -39861,7 +39804,7 @@
         <v>0</v>
       </c>
       <c r="U412" s="3" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
@@ -39913,7 +39856,7 @@
         <v>0.91245896391242898</v>
       </c>
       <c r="N413" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O413" s="3" t="s">
         <v>26</v>
@@ -39932,7 +39875,7 @@
         <v>0</v>
       </c>
       <c r="U413" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="V413" s="3"/>
       <c r="W413" s="3"/>
@@ -40005,11 +39948,11 @@
         <v>0</v>
       </c>
       <c r="U414" s="3" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="V414" s="3"/>
       <c r="W414" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
@@ -40080,11 +40023,11 @@
         <v>0</v>
       </c>
       <c r="U415" s="3" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="V415" s="3"/>
       <c r="W415" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
@@ -40155,11 +40098,11 @@
         <v>0</v>
       </c>
       <c r="U416" s="3" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="V416" s="3"/>
       <c r="W416" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
@@ -40230,11 +40173,11 @@
         <v>0</v>
       </c>
       <c r="U417" s="3" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="V417" s="3"/>
       <c r="W417" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
@@ -40305,11 +40248,11 @@
         <v>0</v>
       </c>
       <c r="U418" s="3" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="V418" s="3"/>
       <c r="W418" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
@@ -40380,11 +40323,11 @@
         <v>0</v>
       </c>
       <c r="U419" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="V419" s="3"/>
       <c r="W419" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
@@ -40455,7 +40398,7 @@
         <v>0</v>
       </c>
       <c r="U420" s="3" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="V420" s="3"/>
       <c r="W420" s="3"/>
@@ -40528,11 +40471,11 @@
         <v>0</v>
       </c>
       <c r="U421" s="3" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="V421" s="3"/>
       <c r="W421" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X421" s="3"/>
       <c r="Y421" s="3"/>
@@ -40603,11 +40546,11 @@
         <v>0</v>
       </c>
       <c r="U422" s="3" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="V422" s="3"/>
       <c r="W422" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="X422" s="3"/>
       <c r="Y422" s="3"/>
@@ -40621,7 +40564,7 @@
         <v>61</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>594</v>
@@ -40657,7 +40600,7 @@
         <v>1.1870154785943599E-3</v>
       </c>
       <c r="N423" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="O423" s="3" t="s">
         <v>26</v>
@@ -40676,12 +40619,10 @@
         <v>0</v>
       </c>
       <c r="U423" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="V423" s="3"/>
-      <c r="W423" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W423" s="3"/>
       <c r="X423" s="3"/>
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
@@ -40694,7 +40635,7 @@
         <v>61</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>594</v>
@@ -40730,7 +40671,7 @@
         <v>2.4565130560005202E-3</v>
       </c>
       <c r="N424" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="O424" s="3" t="s">
         <v>26</v>
@@ -40749,7 +40690,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="V424" s="3"/>
       <c r="W424" s="3"/>
@@ -40765,7 +40706,7 @@
         <v>61</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>594</v>
@@ -40822,7 +40763,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="3" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="V425" s="3"/>
       <c r="W425" s="3"/>
@@ -40838,7 +40779,7 @@
         <v>61</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>594</v>
@@ -40874,7 +40815,7 @@
         <v>8.3297696326256401E-3</v>
       </c>
       <c r="N426" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="O426" s="3" t="s">
         <v>26</v>
@@ -40893,7 +40834,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="3" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="V426" s="3"/>
       <c r="W426" s="3"/>
@@ -40966,11 +40907,11 @@
         <v>0</v>
       </c>
       <c r="U427" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="V427" s="3"/>
       <c r="W427" s="3" t="s">
-        <v>925</v>
+        <v>1186</v>
       </c>
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
@@ -41041,11 +40982,11 @@
         <v>22</v>
       </c>
       <c r="U428" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="V428" s="3"/>
       <c r="W428" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
@@ -41116,11 +41057,11 @@
         <v>22</v>
       </c>
       <c r="U429" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="V429" s="3"/>
       <c r="W429" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
@@ -41191,11 +41132,11 @@
         <v>22</v>
       </c>
       <c r="U430" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="V430" s="3"/>
       <c r="W430" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
@@ -41266,11 +41207,11 @@
         <v>22</v>
       </c>
       <c r="U431" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="V431" s="3"/>
       <c r="W431" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
@@ -41341,11 +41282,11 @@
         <v>22</v>
       </c>
       <c r="U432" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="V432" s="3"/>
       <c r="W432" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
@@ -41416,11 +41357,11 @@
         <v>22</v>
       </c>
       <c r="U433" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V433" s="3"/>
       <c r="W433" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
@@ -41491,7 +41432,7 @@
         <v>0</v>
       </c>
       <c r="U434" s="3" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="V434" s="3"/>
       <c r="W434" s="3"/>
@@ -41564,7 +41505,7 @@
         <v>0</v>
       </c>
       <c r="U435" s="3" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="V435" s="3"/>
       <c r="W435" s="3"/>
@@ -41637,7 +41578,7 @@
         <v>0</v>
       </c>
       <c r="U436" s="3" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="V436" s="3"/>
       <c r="W436" s="3"/>
@@ -41710,7 +41651,7 @@
         <v>0</v>
       </c>
       <c r="U437" s="3" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
@@ -41783,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="U438" s="3" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="V438" s="3"/>
       <c r="W438" s="3"/>
@@ -41856,7 +41797,7 @@
         <v>0</v>
       </c>
       <c r="U439" s="3" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="V439" s="3"/>
       <c r="W439" s="3"/>
@@ -41929,7 +41870,7 @@
         <v>0</v>
       </c>
       <c r="U440" s="3" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="V440" s="3"/>
       <c r="W440" s="3"/>
@@ -42002,7 +41943,7 @@
         <v>0</v>
       </c>
       <c r="U441" s="3" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="V441" s="3"/>
       <c r="W441" s="3"/>
@@ -42075,10 +42016,10 @@
         <v>1</v>
       </c>
       <c r="U442" s="3" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="V442" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
@@ -42150,11 +42091,11 @@
         <v>0</v>
       </c>
       <c r="U443" s="3" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="V443" s="3"/>
       <c r="W443" s="3" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
@@ -42225,7 +42166,7 @@
         <v>0</v>
       </c>
       <c r="U444" s="3" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="V444" s="3"/>
       <c r="W444" s="3"/>
@@ -42298,11 +42239,11 @@
         <v>0</v>
       </c>
       <c r="U445" s="3" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="V445" s="3"/>
       <c r="W445" s="3" t="s">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
@@ -42352,7 +42293,7 @@
         <v>8.6544212372340396E-7</v>
       </c>
       <c r="N446" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="O446" s="3" t="s">
         <v>26</v>
@@ -42371,12 +42312,10 @@
         <v>0</v>
       </c>
       <c r="U446" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="V446" s="3"/>
-      <c r="W446" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W446" s="3"/>
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
@@ -42425,7 +42364,7 @@
         <v>3.4858355875314197E-2</v>
       </c>
       <c r="N447" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="O447" s="3" t="s">
         <v>33</v>
@@ -42444,7 +42383,7 @@
         <v>0</v>
       </c>
       <c r="U447" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="V447" s="3"/>
       <c r="W447" s="3"/>
@@ -42517,7 +42456,7 @@
         <v>0</v>
       </c>
       <c r="U448" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="V448" s="3"/>
       <c r="W448" s="3"/>
@@ -42590,7 +42529,7 @@
         <v>0</v>
       </c>
       <c r="U449" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V449" s="3"/>
       <c r="W449" s="3"/>
@@ -42663,7 +42602,7 @@
         <v>0</v>
       </c>
       <c r="U450" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V450" s="3"/>
       <c r="W450" s="3"/>
@@ -42736,12 +42675,10 @@
         <v>0</v>
       </c>
       <c r="U451" s="3" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="V451" s="3"/>
-      <c r="W451" s="3" t="s">
-        <v>726</v>
-      </c>
+      <c r="W451" s="3"/>
       <c r="X451" s="3"/>
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
@@ -42811,12 +42748,10 @@
         <v>0</v>
       </c>
       <c r="U452" s="3" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="V452" s="3"/>
-      <c r="W452" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="W452" s="3"/>
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
@@ -42886,7 +42821,7 @@
         <v>0</v>
       </c>
       <c r="U453" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="V453" s="3"/>
       <c r="W453" s="3"/>
@@ -42959,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="U454" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="V454" s="3"/>
       <c r="W454" s="3"/>
@@ -43032,7 +42967,7 @@
         <v>0</v>
       </c>
       <c r="U455" s="3" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="V455" s="3"/>
       <c r="W455" s="3"/>
@@ -43105,7 +43040,7 @@
         <v>0</v>
       </c>
       <c r="U456" s="3" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="V456" s="3"/>
       <c r="W456" s="3"/>
@@ -43178,7 +43113,7 @@
         <v>0</v>
       </c>
       <c r="U457" s="3" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
@@ -43251,7 +43186,7 @@
         <v>0</v>
       </c>
       <c r="U458" s="3" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="V458" s="3"/>
       <c r="W458" s="3"/>
@@ -43324,7 +43259,7 @@
         <v>0</v>
       </c>
       <c r="U459" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V459" s="3"/>
       <c r="W459" s="3"/>
@@ -43340,7 +43275,7 @@
         <v>70</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>72</v>
@@ -43376,7 +43311,7 @@
         <v>2.45597077539504E-24</v>
       </c>
       <c r="N460" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="O460" s="3" t="s">
         <v>26</v>
@@ -43397,7 +43332,7 @@
         <v>0</v>
       </c>
       <c r="U460" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="V460" s="3"/>
       <c r="W460" s="3"/>
@@ -43413,7 +43348,7 @@
         <v>70</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>72</v>
@@ -43449,7 +43384,7 @@
         <v>6.6047900321184198E-4</v>
       </c>
       <c r="N461" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="O461" s="3" t="s">
         <v>26</v>
@@ -43470,10 +43405,10 @@
         <v>1</v>
       </c>
       <c r="U461" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="V461" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
@@ -43488,7 +43423,7 @@
         <v>70</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>72</v>
@@ -43524,7 +43459,7 @@
         <v>2.7336835571338002E-2</v>
       </c>
       <c r="N462" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="O462" s="3" t="s">
         <v>26</v>
@@ -43545,10 +43480,10 @@
         <v>1</v>
       </c>
       <c r="U462" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="V462" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
@@ -43563,7 +43498,7 @@
         <v>70</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>72</v>
@@ -43599,7 +43534,7 @@
         <v>6.2964233758121796E-2</v>
       </c>
       <c r="N463" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O463" s="3" t="s">
         <v>26</v>
@@ -43620,7 +43555,7 @@
         <v>0</v>
       </c>
       <c r="U463" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
@@ -43636,7 +43571,7 @@
         <v>70</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>72</v>
@@ -43672,7 +43607,7 @@
         <v>2.1094092996124299E-2</v>
       </c>
       <c r="N464" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O464" s="3" t="s">
         <v>26</v>
@@ -43693,7 +43628,7 @@
         <v>0</v>
       </c>
       <c r="U464" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
@@ -43709,7 +43644,7 @@
         <v>70</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>72</v>
@@ -43745,7 +43680,7 @@
         <v>1.94198882990464E-3</v>
       </c>
       <c r="N465" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="O465" s="3" t="s">
         <v>26</v>
@@ -43766,7 +43701,7 @@
         <v>0</v>
       </c>
       <c r="U465" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V465" s="3"/>
       <c r="W465" s="3"/>
@@ -43782,7 +43717,7 @@
         <v>70</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>72</v>
@@ -43818,7 +43753,7 @@
         <v>1.6325261358972099E-2</v>
       </c>
       <c r="N466" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="O466" s="3" t="s">
         <v>26</v>
@@ -43839,7 +43774,7 @@
         <v>0</v>
       </c>
       <c r="U466" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
@@ -43855,7 +43790,7 @@
         <v>70</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>72</v>
@@ -43891,7 +43826,7 @@
         <v>5.0372513882732605E-4</v>
       </c>
       <c r="N467" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="O467" s="3" t="s">
         <v>26</v>
@@ -43912,7 +43847,7 @@
         <v>0</v>
       </c>
       <c r="U467" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V467" s="3"/>
       <c r="W467" s="3"/>
@@ -43928,7 +43863,7 @@
         <v>70</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>72</v>
@@ -43964,7 +43899,7 @@
         <v>7.4454548223163997E-2</v>
       </c>
       <c r="N468" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>26</v>
@@ -43985,7 +43920,7 @@
         <v>0</v>
       </c>
       <c r="U468" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V468" s="3"/>
       <c r="W468" s="3"/>
@@ -44001,7 +43936,7 @@
         <v>70</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>72</v>
@@ -44037,7 +43972,7 @@
         <v>5.5274908427644502E-5</v>
       </c>
       <c r="N469" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O469" s="3" t="s">
         <v>26</v>
@@ -44058,7 +43993,7 @@
         <v>0</v>
       </c>
       <c r="U469" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="V469" s="3"/>
       <c r="W469" s="3"/>
@@ -44074,7 +44009,7 @@
         <v>70</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>72</v>
@@ -44110,7 +44045,7 @@
         <v>3.80736116339901E-3</v>
       </c>
       <c r="N470" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="O470" s="3" t="s">
         <v>26</v>
@@ -44131,10 +44066,10 @@
         <v>1</v>
       </c>
       <c r="U470" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="V470" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
@@ -44149,7 +44084,7 @@
         <v>70</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>72</v>
@@ -44185,7 +44120,7 @@
         <v>1.54442052388158E-6</v>
       </c>
       <c r="N471" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="O471" s="3" t="s">
         <v>26</v>
@@ -44206,10 +44141,10 @@
         <v>1</v>
       </c>
       <c r="U471" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="V471" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
@@ -44224,7 +44159,7 @@
         <v>70</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>72</v>
@@ -44260,7 +44195,7 @@
         <v>0.42703240437762802</v>
       </c>
       <c r="N472" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="O472" s="3" t="s">
         <v>26</v>
@@ -44281,10 +44216,10 @@
         <v>1</v>
       </c>
       <c r="U472" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="V472" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
@@ -44299,7 +44234,7 @@
         <v>70</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>72</v>
@@ -44335,7 +44270,7 @@
         <v>0.103086717982739</v>
       </c>
       <c r="N473" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="O473" s="3" t="s">
         <v>33</v>
@@ -44356,10 +44291,10 @@
         <v>1</v>
       </c>
       <c r="U473" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="V473" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
@@ -44374,7 +44309,7 @@
         <v>70</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>72</v>
@@ -44410,7 +44345,7 @@
         <v>1.39872448374899E-2</v>
       </c>
       <c r="N474" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="O474" s="3" t="s">
         <v>26</v>
@@ -44431,10 +44366,10 @@
         <v>1</v>
       </c>
       <c r="U474" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="V474" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
@@ -44449,7 +44384,7 @@
         <v>70</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>72</v>
@@ -44485,7 +44420,7 @@
         <v>4.4138317624251299E-4</v>
       </c>
       <c r="N475" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="O475" s="3" t="s">
         <v>26</v>
@@ -44506,10 +44441,10 @@
         <v>1</v>
       </c>
       <c r="U475" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="V475" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
@@ -44524,7 +44459,7 @@
         <v>71</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>120</v>
@@ -44560,7 +44495,7 @@
         <v>2.2887480818011001E-35</v>
       </c>
       <c r="N476" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="O476" s="3" t="s">
         <v>26</v>
@@ -44581,7 +44516,7 @@
         <v>0</v>
       </c>
       <c r="U476" s="3" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="V476" s="3"/>
       <c r="W476" s="3"/>
@@ -44597,7 +44532,7 @@
         <v>71</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>120</v>
@@ -44633,7 +44568,7 @@
         <v>3.4121277514831003E-2</v>
       </c>
       <c r="N477" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="O477" s="3" t="s">
         <v>33</v>
@@ -44654,7 +44589,7 @@
         <v>0</v>
       </c>
       <c r="U477" s="3" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
@@ -44670,7 +44605,7 @@
         <v>71</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>120</v>
@@ -44706,7 +44641,7 @@
         <v>2.6911019398797499E-6</v>
       </c>
       <c r="N478" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="O478" s="3" t="s">
         <v>26</v>
@@ -44727,7 +44662,7 @@
         <v>0</v>
       </c>
       <c r="U478" s="3" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="V478" s="3"/>
       <c r="W478" s="3"/>
@@ -44743,7 +44678,7 @@
         <v>71</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>120</v>
@@ -44779,7 +44714,7 @@
         <v>6.9474926852909893E-30</v>
       </c>
       <c r="N479" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="O479" s="3" t="s">
         <v>33</v>
@@ -44800,7 +44735,7 @@
         <v>0</v>
       </c>
       <c r="U479" s="3" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="V479" s="3"/>
       <c r="W479" s="3"/>
@@ -44816,7 +44751,7 @@
         <v>71</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>120</v>
@@ -44852,7 +44787,7 @@
         <v>3.8357037241427199E-13</v>
       </c>
       <c r="N480" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="O480" s="3" t="s">
         <v>26</v>
@@ -44873,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="U480" s="3" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="V480" s="3"/>
       <c r="W480" s="3"/>
@@ -44889,7 +44824,7 @@
         <v>71</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>120</v>
@@ -44925,7 +44860,7 @@
         <v>6.4091044704741096E-11</v>
       </c>
       <c r="N481" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="O481" s="3" t="s">
         <v>26</v>
@@ -44946,7 +44881,7 @@
         <v>0</v>
       </c>
       <c r="U481" s="3" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="V481" s="3"/>
       <c r="W481" s="3"/>
@@ -44962,7 +44897,7 @@
         <v>71</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>120</v>
@@ -44998,7 +44933,7 @@
         <v>5.5244358403767598E-6</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="O482" s="3" t="s">
         <v>26</v>
@@ -45019,7 +44954,7 @@
         <v>0</v>
       </c>
       <c r="U482" s="3" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="V482" s="3"/>
       <c r="W482" s="3"/>
@@ -45035,7 +44970,7 @@
         <v>71</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>120</v>
@@ -45071,7 +45006,7 @@
         <v>3.3425912214947099E-24</v>
       </c>
       <c r="N483" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="O483" s="3" t="s">
         <v>26</v>
@@ -45092,7 +45027,7 @@
         <v>0</v>
       </c>
       <c r="U483" s="3" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
@@ -45108,7 +45043,7 @@
         <v>71</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>120</v>
@@ -45144,7 +45079,7 @@
         <v>2.7596805169884699E-7</v>
       </c>
       <c r="N484" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="O484" s="3" t="s">
         <v>26</v>
@@ -45165,7 +45100,7 @@
         <v>0</v>
       </c>
       <c r="U484" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V484" s="3"/>
       <c r="W484" s="3"/>
@@ -45181,7 +45116,7 @@
         <v>71</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>120</v>
@@ -45217,7 +45152,7 @@
         <v>4.2876089477186699E-2</v>
       </c>
       <c r="N485" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O485" s="3" t="s">
         <v>26</v>
@@ -45238,7 +45173,7 @@
         <v>0</v>
       </c>
       <c r="U485" s="3" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
@@ -45254,7 +45189,7 @@
         <v>71</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>120</v>
@@ -45290,7 +45225,7 @@
         <v>4.2876089477186699E-2</v>
       </c>
       <c r="N486" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O486" s="3" t="s">
         <v>26</v>
@@ -45311,7 +45246,7 @@
         <v>0</v>
       </c>
       <c r="U486" s="3" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
@@ -45327,7 +45262,7 @@
         <v>71</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>120</v>
@@ -45363,7 +45298,7 @@
         <v>3.0050038442115201E-4</v>
       </c>
       <c r="N487" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="O487" s="3" t="s">
         <v>26</v>
@@ -45384,7 +45319,7 @@
         <v>0</v>
       </c>
       <c r="U487" s="3" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
@@ -45400,7 +45335,7 @@
         <v>71</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>120</v>
@@ -45436,7 +45371,7 @@
         <v>0.55800576900830301</v>
       </c>
       <c r="N488" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="O488" s="3" t="s">
         <v>26</v>
@@ -45457,7 +45392,7 @@
         <v>0</v>
       </c>
       <c r="U488" s="3" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
@@ -45473,7 +45408,7 @@
         <v>71</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>120</v>
@@ -45509,7 +45444,7 @@
         <v>0.13846432230154601</v>
       </c>
       <c r="N489" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="O489" s="3" t="s">
         <v>26</v>
@@ -45530,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="U489" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="V489" s="3"/>
       <c r="W489" s="3"/>
@@ -45546,10 +45481,10 @@
         <v>72</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>30</v>
@@ -45582,7 +45517,7 @@
         <v>0.19300518093007299</v>
       </c>
       <c r="N490" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="O490" s="3" t="s">
         <v>26</v>
@@ -45603,7 +45538,7 @@
         <v>0</v>
       </c>
       <c r="U490" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V490" s="3"/>
       <c r="W490" s="3"/>
@@ -45619,10 +45554,10 @@
         <v>73</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>30</v>
@@ -45655,7 +45590,7 @@
         <v>6.1807595792048505E-35</v>
       </c>
       <c r="N491" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="O491" s="3" t="s">
         <v>26</v>
@@ -45676,7 +45611,7 @@
         <v>0</v>
       </c>
       <c r="U491" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
@@ -45692,10 +45627,10 @@
         <v>73</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>30</v>
@@ -45728,7 +45663,7 @@
         <v>1.5973215670955601E-37</v>
       </c>
       <c r="N492" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="O492" s="3" t="s">
         <v>26</v>
@@ -45749,7 +45684,7 @@
         <v>0</v>
       </c>
       <c r="U492" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="V492" s="3"/>
       <c r="W492" s="3"/>
@@ -45765,10 +45700,10 @@
         <v>73</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>30</v>
@@ -45801,7 +45736,7 @@
         <v>2.69268982944411E-37</v>
       </c>
       <c r="N493" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="O493" s="3" t="s">
         <v>26</v>
@@ -45822,7 +45757,7 @@
         <v>0</v>
       </c>
       <c r="U493" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V493" s="3"/>
       <c r="W493" s="3"/>
@@ -45838,10 +45773,10 @@
         <v>73</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>30</v>
@@ -45874,7 +45809,7 @@
         <v>3.51216347164897E-10</v>
       </c>
       <c r="N494" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="O494" s="3" t="s">
         <v>26</v>
@@ -45895,10 +45830,10 @@
         <v>1</v>
       </c>
       <c r="U494" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="V494" s="3" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
@@ -45913,10 +45848,10 @@
         <v>73</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>30</v>
@@ -45949,7 +45884,7 @@
         <v>3.0141094887190401E-2</v>
       </c>
       <c r="N495" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="O495" s="3" t="s">
         <v>26</v>
@@ -45970,10 +45905,10 @@
         <v>1</v>
       </c>
       <c r="U495" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="V495" s="3" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
@@ -45988,10 +45923,10 @@
         <v>73</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>30</v>
@@ -46024,7 +45959,7 @@
         <v>0.21209310154687</v>
       </c>
       <c r="N496" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="O496" s="3" t="s">
         <v>26</v>
@@ -46045,10 +45980,10 @@
         <v>1</v>
       </c>
       <c r="U496" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="V496" s="3" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
@@ -46063,10 +45998,10 @@
         <v>74</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>30</v>
@@ -46099,7 +46034,7 @@
         <v>0.84148058112179402</v>
       </c>
       <c r="N497" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="O497" s="3" t="s">
         <v>26</v>
@@ -46120,10 +46055,10 @@
         <v>1</v>
       </c>
       <c r="U497" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="V497" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
@@ -46138,10 +46073,10 @@
         <v>74</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>30</v>
@@ -46174,7 +46109,7 @@
         <v>4.2883213527400099E-2</v>
       </c>
       <c r="N498" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="O498" s="3" t="s">
         <v>26</v>
@@ -46195,10 +46130,10 @@
         <v>1</v>
       </c>
       <c r="U498" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="V498" s="6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
@@ -46213,10 +46148,10 @@
         <v>75</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>30</v>
@@ -46249,7 +46184,7 @@
         <v>0.73840748806907697</v>
       </c>
       <c r="N499" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="O499" s="3" t="s">
         <v>33</v>
@@ -46270,7 +46205,7 @@
         <v>0</v>
       </c>
       <c r="U499" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="V499" s="3"/>
       <c r="W499" s="3"/>
@@ -46286,10 +46221,10 @@
         <v>75</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>30</v>
@@ -46322,7 +46257,7 @@
         <v>1.55707066954412E-35</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O500" s="3" t="s">
         <v>26</v>
@@ -46343,11 +46278,11 @@
         <v>22</v>
       </c>
       <c r="U500" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="V500" s="3"/>
       <c r="W500" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
@@ -46361,10 +46296,10 @@
         <v>75</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>30</v>
@@ -46397,7 +46332,7 @@
         <v>2.7505873313984101E-3</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O501" s="3" t="s">
         <v>26</v>
@@ -46418,7 +46353,7 @@
         <v>0</v>
       </c>
       <c r="U501" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="V501" s="3"/>
       <c r="W501" s="3"/>
@@ -46434,10 +46369,10 @@
         <v>75</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>30</v>
@@ -46470,7 +46405,7 @@
         <v>0.47763627990527702</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O502" s="3" t="s">
         <v>26</v>
@@ -46491,7 +46426,7 @@
         <v>0</v>
       </c>
       <c r="U502" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="V502" s="3"/>
       <c r="W502" s="3"/>
@@ -46507,10 +46442,10 @@
         <v>75</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>30</v>
@@ -46543,7 +46478,7 @@
         <v>0.87031679991573496</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O503" s="3" t="s">
         <v>26</v>
@@ -46564,7 +46499,7 @@
         <v>0</v>
       </c>
       <c r="U503" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="V503" s="3"/>
       <c r="W503" s="3"/>
@@ -46580,10 +46515,10 @@
         <v>76</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>30</v>
@@ -46616,7 +46551,7 @@
         <v>4.1616554277049501E-2</v>
       </c>
       <c r="N504" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O504" s="3" t="s">
         <v>26</v>
@@ -46637,10 +46572,10 @@
         <v>1</v>
       </c>
       <c r="U504" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="V504" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
@@ -46655,10 +46590,10 @@
         <v>76</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>30</v>
@@ -46691,7 +46626,7 @@
         <v>4.1209616228100598E-2</v>
       </c>
       <c r="N505" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O505" s="3" t="s">
         <v>26</v>
@@ -46712,10 +46647,10 @@
         <v>1</v>
       </c>
       <c r="U505" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="V505" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
@@ -46730,10 +46665,10 @@
         <v>76</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>30</v>
@@ -46766,7 +46701,7 @@
         <v>1.86044735152475E-7</v>
       </c>
       <c r="N506" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O506" s="3" t="s">
         <v>26</v>
@@ -46787,7 +46722,7 @@
         <v>0</v>
       </c>
       <c r="U506" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="V506" s="3"/>
       <c r="W506" s="3"/>
@@ -46803,10 +46738,10 @@
         <v>76</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>30</v>
@@ -46839,7 +46774,7 @@
         <v>4.1238472386291299E-7</v>
       </c>
       <c r="N507" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O507" s="3" t="s">
         <v>26</v>
@@ -46860,10 +46795,10 @@
         <v>1</v>
       </c>
       <c r="U507" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="V507" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
@@ -46878,10 +46813,10 @@
         <v>76</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>30</v>
@@ -46914,7 +46849,7 @@
         <v>9.1527801577750596E-3</v>
       </c>
       <c r="N508" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O508" s="3" t="s">
         <v>26</v>
@@ -46935,10 +46870,10 @@
         <v>1</v>
       </c>
       <c r="U508" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="V508" s="3" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
@@ -46953,10 +46888,10 @@
         <v>76</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>30</v>
@@ -46989,7 +46924,7 @@
         <v>9.1527801577750596E-3</v>
       </c>
       <c r="N509" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O509" s="3" t="s">
         <v>26</v>
@@ -47010,10 +46945,10 @@
         <v>1</v>
       </c>
       <c r="U509" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="V509" s="3" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
@@ -47028,10 +46963,10 @@
         <v>77</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>30</v>
@@ -47064,7 +46999,7 @@
         <v>2.14058770935785E-3</v>
       </c>
       <c r="N510" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O510" s="3" t="s">
         <v>26</v>
@@ -47085,10 +47020,10 @@
         <v>1</v>
       </c>
       <c r="U510" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="V510" s="3" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
@@ -47103,10 +47038,10 @@
         <v>77</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>30</v>
@@ -47139,7 +47074,7 @@
         <v>2.3821250837094101E-2</v>
       </c>
       <c r="N511" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O511" s="3" t="s">
         <v>26</v>
@@ -47160,10 +47095,10 @@
         <v>1</v>
       </c>
       <c r="U511" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="V511" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
@@ -47178,10 +47113,10 @@
         <v>78</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>30</v>
@@ -47214,7 +47149,7 @@
         <v>1.18119840214578E-2</v>
       </c>
       <c r="N512" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O512" s="3" t="s">
         <v>26</v>
@@ -47235,7 +47170,7 @@
         <v>0</v>
       </c>
       <c r="U512" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="V512" s="3"/>
       <c r="W512" s="3"/>
@@ -47251,10 +47186,10 @@
         <v>78</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>30</v>
@@ -47287,7 +47222,7 @@
         <v>4.3047234252240399E-3</v>
       </c>
       <c r="N513" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="O513" s="3" t="s">
         <v>26</v>
@@ -47308,7 +47243,7 @@
         <v>0</v>
       </c>
       <c r="U513" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="V513" s="3"/>
       <c r="W513" s="3"/>
@@ -47324,10 +47259,10 @@
         <v>78</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>30</v>
@@ -47360,7 +47295,7 @@
         <v>2.65556160172991E-2</v>
       </c>
       <c r="N514" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O514" s="3" t="s">
         <v>26</v>
@@ -47381,7 +47316,7 @@
         <v>0</v>
       </c>
       <c r="U514" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="V514" s="3"/>
       <c r="W514" s="3"/>
@@ -47397,10 +47332,10 @@
         <v>78</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>30</v>
@@ -47433,7 +47368,7 @@
         <v>6.2247718777457502E-2</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="O515" s="3" t="s">
         <v>26</v>
@@ -47454,10 +47389,10 @@
         <v>1</v>
       </c>
       <c r="U515" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="V515" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
@@ -47472,10 +47407,10 @@
         <v>78</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>30</v>
@@ -47508,7 +47443,7 @@
         <v>1.2332005938455201E-2</v>
       </c>
       <c r="N516" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O516" s="3" t="s">
         <v>26</v>
@@ -47529,10 +47464,10 @@
         <v>1</v>
       </c>
       <c r="U516" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="V516" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
@@ -47547,10 +47482,10 @@
         <v>79</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>30</v>
@@ -47583,7 +47518,7 @@
         <v>0</v>
       </c>
       <c r="N517" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="O517" s="3" t="s">
         <v>26</v>
@@ -47604,7 +47539,7 @@
         <v>0</v>
       </c>
       <c r="U517" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="V517" s="3"/>
       <c r="W517" s="3"/>
@@ -47620,10 +47555,10 @@
         <v>79</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>30</v>
@@ -47656,7 +47591,7 @@
         <v>7.5851246953709799E-3</v>
       </c>
       <c r="N518" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="O518" s="3" t="s">
         <v>26</v>
@@ -47677,10 +47612,10 @@
         <v>1</v>
       </c>
       <c r="U518" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="V518" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
@@ -47695,10 +47630,10 @@
         <v>79</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>30</v>
@@ -47731,7 +47666,7 @@
         <v>6.4634132568990199E-2</v>
       </c>
       <c r="N519" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O519" s="3" t="s">
         <v>26</v>
@@ -47752,7 +47687,7 @@
         <v>0</v>
       </c>
       <c r="U519" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="V519" s="3"/>
       <c r="W519" s="3"/>
@@ -47768,10 +47703,10 @@
         <v>79</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>30</v>
@@ -47804,7 +47739,7 @@
         <v>2.1315078357404499E-3</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="O520" s="3" t="s">
         <v>26</v>
@@ -47825,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="U520" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="V520" s="3"/>
       <c r="W520" s="3"/>
@@ -47841,10 +47776,10 @@
         <v>79</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>30</v>
@@ -47877,7 +47812,7 @@
         <v>2.1315078357404499E-3</v>
       </c>
       <c r="N521" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="O521" s="3" t="s">
         <v>26</v>
@@ -47898,7 +47833,7 @@
         <v>0</v>
       </c>
       <c r="U521" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="V521" s="3"/>
       <c r="W521" s="3"/>
@@ -47914,10 +47849,10 @@
         <v>79</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>30</v>
@@ -47950,7 +47885,7 @@
         <v>4.55002638963585E-2</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="O522" s="3" t="s">
         <v>26</v>
@@ -47971,10 +47906,10 @@
         <v>1</v>
       </c>
       <c r="U522" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="V522" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
@@ -47989,10 +47924,10 @@
         <v>79</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>30</v>
@@ -48025,7 +47960,7 @@
         <v>4.7822414133905002E-3</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="O523" s="3" t="s">
         <v>26</v>
@@ -48046,10 +47981,10 @@
         <v>1</v>
       </c>
       <c r="U523" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="V523" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
@@ -48064,10 +47999,10 @@
         <v>79</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D524" s="3" t="s">
         <v>30</v>
@@ -48100,7 +48035,7 @@
         <v>2.56419831722009E-2</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="O524" s="3" t="s">
         <v>26</v>
@@ -48121,10 +48056,10 @@
         <v>1</v>
       </c>
       <c r="U524" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="V524" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
@@ -48139,10 +48074,10 @@
         <v>80</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>538</v>
@@ -48175,7 +48110,7 @@
         <v>4.2760712914205099E-4</v>
       </c>
       <c r="N525" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O525" s="3" t="s">
         <v>26</v>
@@ -48194,12 +48129,10 @@
         <v>0</v>
       </c>
       <c r="U525" s="3" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="V525" s="3"/>
-      <c r="W525" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="W525" s="3"/>
       <c r="X525" s="3"/>
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>

--- a/Data sets/APA/APA.xlsx
+++ b/Data sets/APA/APA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\APA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DAEF3-AB0D-4BA3-8425-6B82649032E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174A626-A541-459C-B28E-5164B113C2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="8472" windowWidth="15120" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistical reporting errors al" sheetId="1" r:id="rId1"/>
@@ -9286,8 +9286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="W451" sqref="W451"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="W260" sqref="W260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
